--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325562</v>
+        <v>267281.5962860413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.898601451</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>38.87161743162454</v>
+        <v>125.7974037899211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.87161743162455</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>44.13217237922859</v>
+        <v>63.98874752582401</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>92.69432813215352</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="19">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>57.81343218737562</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.5971668681845</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>12.46721461441949</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>190.9141499935689</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>130.1470570050006</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3043,61 +3043,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>75.98437144330408</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>66.90242532128991</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>27.07819302293025</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,43 +4146,43 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9507376187037</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C3" t="n">
-        <v>87.37278572049297</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>545.7378793822027</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>134.6031257566472</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>176.5286895169144</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.2644294849704</v>
+        <v>83.91624162114607</v>
       </c>
       <c r="C6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8378388614781</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.9507376187037</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C15" t="n">
-        <v>131.9507376187037</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E15" t="n">
-        <v>131.9507376187037</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F15" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.9507376187037</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>77.67854936008709</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5834,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W21" t="n">
-        <v>252.1315786412141</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>252.1315786412141</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>252.1315786412141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>582.7883107557723</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C29" t="n">
-        <v>315.6850394389064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X29" t="n">
-        <v>559.1338160830064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.7428168526376</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y30" t="n">
-        <v>318.9581538727056</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="31">
@@ -6657,13 +6657,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>486.248002141161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>486.248002141161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>486.248002141161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>339.713444168046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>200.9826187506615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>87.61348315824078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7083,19 +7083,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7602,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>587.3248651012614</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>343.8760884571613</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8760884571613</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X44" t="n">
-        <v>343.8760884571613</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.2549444941228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>346.8019152129958</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>197.8675055517446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>38.63005054628906</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.8594832468445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.7734630237764</v>
+        <v>31.84767666547982</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6615662182428</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>108.7197514624917</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,16 +23108,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23150,19 +23150,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23223,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.37159280401211</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>310.3693512857885</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>80.01417085616222</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23630,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>412.0374214579384</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23782,7 +23782,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="19">
@@ -23940,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24019,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>89.63163337726314</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>70.26853576158751</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>105.1858963954562</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9360167816828096</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24305,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24420,10 +24420,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>287.7526474377897</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24493,10 +24493,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24533,19 +24533,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6019977789644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,10 +24581,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>60.78083316735075</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>128.0146919313124</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>42.56144198331512</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>22.5314303951711</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24812,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>96.72412754501165</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>157.0090553831951</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,16 +25207,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>22.49420753012517</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25332,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>308.7646895842778</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>174.9274946967228</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>173.0865356718913</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>334.968030499315</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623475</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>118.1880988014951</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071918</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="L2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="P2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879934</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000448</v>
+        <v>-58486.99703753131</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401643</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524467</v>
+        <v>22282.43449401643</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358457</v>
+        <v>55910.03449401639</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406596</v>
+        <v>-7149.908105089831</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659307</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405682</v>
+        <v>55910.03449401636</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330019</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860413</v>
+        <v>361671.1651892322</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.898601451</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.7974037899211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>63.98874752582401</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>56.91690033700343</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C15" t="n">
-        <v>92.69432813215352</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="17">
@@ -1849,64 +1849,64 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>79.51937909315355</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>35.40726547353844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,64 +2089,64 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>155.6728463193873</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2374,10 +2374,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>199.0699060752191</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>190.9141499935689</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>24.83923539838699</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>122.5377819982128</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,11 +3031,11 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="C35" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3313,19 +3313,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>107.0564356555957</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,58 +3435,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>111.7765806969846</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,58 +3672,58 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>27.07819302293025</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6722890434539</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>694.6722890434539</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>545.7378793822027</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>418.6697947459187</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.91624162114607</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>252.1315786412141</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>252.1315786412141</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>252.1315786412141</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>252.1315786412141</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T11" t="n">
-        <v>577.2332497330343</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>906.5653369884105</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>678.3417187247995</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>567.6182002269572</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>473.9875657500345</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>325.0531560887832</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>165.8157010833278</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>735.8335372470253</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W15" t="n">
-        <v>735.8335372470253</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>735.8335372470253</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>735.8335372470253</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D17" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>509.4769954460863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W17" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X17" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>372.2103388526884</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>212.9728838472329</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X18" t="n">
-        <v>55.04605772994853</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="19">
@@ -5700,13 +5700,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>266.0282188019862</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F20" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>266.0282188019862</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>705.6423267510095</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>470.4902185192667</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>376.1934816808115</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>560.7898476621102</v>
       </c>
       <c r="W24" t="n">
-        <v>109.8523314442283</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="25">
@@ -6171,16 +6171,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>527.5764290961142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C26" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="27">
@@ -6308,46 +6308,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6411,7 +6411,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>485.4562706347935</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="C30" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X30" t="n">
-        <v>485.4562706347935</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y30" t="n">
-        <v>485.4562706347935</v>
+        <v>44.37127987626019</v>
       </c>
     </row>
     <row r="31">
@@ -6642,19 +6642,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I32" t="n">
         <v>31.35113235729608</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="34">
@@ -6888,13 +6888,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.7186438601369</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.7186438601369</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7134,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="D39" t="n">
-        <v>384.2867411876791</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="E39" t="n">
-        <v>384.2867411876791</v>
+        <v>145.5408093233744</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7502,7 +7502,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>662.1185713900188</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>662.1185713900188</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>662.1185713900188</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>418.6697947459187</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X42" t="n">
-        <v>418.6697947459187</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7554,10 +7554,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7730,13 +7730,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>371.3463732493024</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>368.5691090902119</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,10 +11150,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>31.84767666547982</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22752,16 +22752,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.5029409294872</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>108.7197514624917</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22989,28 +22989,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,19 +23150,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>143.2478283578182</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C15" t="n">
-        <v>80.01417085616222</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23624,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23709,19 +23709,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="17">
@@ -23737,25 +23737,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23791,10 +23791,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>158.8955716431282</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23816,19 +23816,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>65.54983330023033</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>70.26853576158751</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>33.73068107420622</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>287.7526474377897</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>60.78083316735075</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,10 +24651,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24700,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>128.0146919313124</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>147.8692635899287</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>22.5314303951711</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,13 +24976,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>47.80171886345876</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>311.7191632230923</v>
       </c>
       <c r="C35" t="n">
-        <v>157.0090553831951</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25174,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>59.47674799427166</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>33.29263169639931</v>
+        <v>20.07214284235378</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,16 +25642,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>214.9666412263055</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>173.0865356718913</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>291.8274516623475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841413</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.8032107192</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.80321071918</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879939</v>
@@ -26349,13 +26349,13 @@
         <v>99696.40351879939</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.99703753131</v>
+        <v>7159.793223095741</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401643</v>
+        <v>21949.49922734001</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401643</v>
+        <v>21949.49922734002</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401643</v>
+        <v>55577.09922733996</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401638</v>
+        <v>55577.09922733995</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401639</v>
+        <v>12943.80915158053</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401637</v>
+        <v>66906.24405205285</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089831</v>
+        <v>55359.32594206191</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401644</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401638</v>
+        <v>19526.36583458904</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401636</v>
+        <v>66906.24405205282</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.0046611659691</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37870,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
